--- a/DATA_Stevka.xlsx
+++ b/DATA_Stevka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docMgrJozefKiseľákPh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE697D-F956-4040-AFA0-CCCEBEBB7778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A65C612-743E-4131-815F-200B58AB9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1377,6 +1377,9 @@
   </cellStyles>
   <dxfs count="56">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1561,9 +1564,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
@@ -1584,61 +1584,61 @@
   <autoFilter ref="B1:BE1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="56">
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pohlavie" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Vek" dataDxfId="54"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Prax 1.st. " dataDxfId="53"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Prax 2.st. " dataDxfId="52"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Aprobácia" dataDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Zriaďovateľ" dataDxfId="51"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Veľkosť školy" dataDxfId="4"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="hl.mesto/kr.mesto/mesto/obec" dataDxfId="2"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Kraj" dataDxfId="3"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Rozumová výchova" dataDxfId="50"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Morálna výchova" dataDxfId="49"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Pracovná výchova" dataDxfId="48"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Estetická výchova" dataDxfId="47"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Telesná výchova" dataDxfId="46"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Náboženská výchova" dataDxfId="45"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Mediálna výchova" dataDxfId="44"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Multikultúrna výchova" dataDxfId="43"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Regionálna výchova" dataDxfId="42"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Sexuálna výchova" dataDxfId="41"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Výchova k manželstvu a rodičovstvu" dataDxfId="40"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Emočná/citová výchova" dataDxfId="39"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Globálna výchova" dataDxfId="38"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Environmentálna výchova" dataDxfId="37"/>
-    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="rozumová výchova2" dataDxfId="36"/>
-    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="morálna výchova2" dataDxfId="35"/>
-    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="pracovná výchova2" dataDxfId="34"/>
-    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" name="estetická výchova2" dataDxfId="33"/>
-    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0000-00005D000000}" name="telesná výchova2" dataDxfId="32"/>
-    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0000-000060000000}" name="náboženská výchova2" dataDxfId="31"/>
-    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0000-000063000000}" name="mediálna výchova2" dataDxfId="30"/>
-    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0000-000066000000}" name="multikultúrna výchova2" dataDxfId="29"/>
-    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0000-000069000000}" name="regionálna výchova2" dataDxfId="28"/>
-    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0000-00006C000000}" name="sexuálna výchova2" dataDxfId="27"/>
-    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0000-00006F000000}" name="výchova k manželstvu a rodičovstvu2" dataDxfId="26"/>
-    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0000-000072000000}" name="emočná/citová výchova2" dataDxfId="25"/>
-    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0000-000075000000}" name="globálna výchova2" dataDxfId="24"/>
-    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0000-000078000000}" name="environmentálna výchova2" dataDxfId="23"/>
-    <tableColumn id="126" xr3:uid="{00000000-0010-0000-0000-00007E000000}" name="Predmety na rozvoj MV" dataDxfId="22"/>
-    <tableColumn id="129" xr3:uid="{00000000-0010-0000-0000-000081000000}" name="Učiteľ v rozvoji MV" dataDxfId="21"/>
-    <tableColumn id="132" xr3:uid="{00000000-0010-0000-0000-000084000000}" name="Metódy rozvoja  MV" dataDxfId="20"/>
-    <tableColumn id="141" xr3:uid="{00000000-0010-0000-0000-00008D000000}" name="Vzdelávanie v MV" dataDxfId="19"/>
-    <tableColumn id="144" xr3:uid="{00000000-0010-0000-0000-000090000000}" name="Met. materiály na rozvoj MV" dataDxfId="18"/>
-    <tableColumn id="147" xr3:uid="{00000000-0010-0000-0000-000093000000}" name="Podmienky na rozvoj MV" dataDxfId="17"/>
-    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0000-000096000000}" name="Potreby učiteľov v rozvoji MV" dataDxfId="16"/>
-    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0000-00009B000000}" name="Učiteľ/ka ako morálny vzor" dataDxfId="15"/>
-    <tableColumn id="158" xr3:uid="{00000000-0010-0000-0000-00009E000000}" name="Úloha učiteľa/ky v rozvoji MV" dataDxfId="14"/>
-    <tableColumn id="161" xr3:uid="{00000000-0010-0000-0000-0000A1000000}" name="Dostatok morálnych vzorov" dataDxfId="0"/>
-    <tableColumn id="164" xr3:uid="{00000000-0010-0000-0000-0000A4000000}" name="Úloha rodičov v rozvoji MV" dataDxfId="13"/>
-    <tableColumn id="167" xr3:uid="{00000000-0010-0000-0000-0000A7000000}" name="Morálne posolstvo v súčasných médiách" dataDxfId="12"/>
-    <tableColumn id="170" xr3:uid="{00000000-0010-0000-0000-0000AA000000}" name="Náchylnosť na nemorálnosť v súčastnosti" dataDxfId="11"/>
-    <tableColumn id="173" xr3:uid="{00000000-0010-0000-0000-0000AD000000}" name="Náboženské predpisy a morálka" dataDxfId="10"/>
-    <tableColumn id="176" xr3:uid="{00000000-0010-0000-0000-0000B0000000}" name="Nemorálne správanie detí" dataDxfId="9"/>
-    <tableColumn id="179" xr3:uid="{00000000-0010-0000-0000-0000B3000000}" name="Krádež jedla pre iných - ne/morálne konanie" dataDxfId="8"/>
-    <tableColumn id="182" xr3:uid="{00000000-0010-0000-0000-0000B6000000}" name="Dodržiavanie stanovených pravidiel" dataDxfId="7"/>
-    <tableColumn id="185" xr3:uid="{00000000-0010-0000-0000-0000B9000000}" name="Schopnosť detí rozlíšovať dobro a zlo" dataDxfId="6"/>
-    <tableColumn id="188" xr3:uid="{00000000-0010-0000-0000-0000BC000000}" name="Zlaté pravidlo dodržiavania morálky" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Vek" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Prax 1.st. " dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Prax 2.st. " dataDxfId="53"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Aprobácia" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Zriaďovateľ" dataDxfId="52"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Veľkosť školy" dataDxfId="5"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="hl.mesto/kr.mesto/mesto/obec" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Kraj" dataDxfId="4"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Rozumová výchova" dataDxfId="51"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Morálna výchova" dataDxfId="50"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Pracovná výchova" dataDxfId="49"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Estetická výchova" dataDxfId="48"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Telesná výchova" dataDxfId="47"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Náboženská výchova" dataDxfId="46"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Mediálna výchova" dataDxfId="45"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Multikultúrna výchova" dataDxfId="44"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Regionálna výchova" dataDxfId="43"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Sexuálna výchova" dataDxfId="42"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Výchova k manželstvu a rodičovstvu" dataDxfId="41"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Emočná/citová výchova" dataDxfId="40"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Globálna výchova" dataDxfId="39"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Environmentálna výchova" dataDxfId="38"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="rozumová výchova2" dataDxfId="37"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="morálna výchova2" dataDxfId="36"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="pracovná výchova2" dataDxfId="35"/>
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" name="estetická výchova2" dataDxfId="34"/>
+    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0000-00005D000000}" name="telesná výchova2" dataDxfId="33"/>
+    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0000-000060000000}" name="náboženská výchova2" dataDxfId="32"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0000-000063000000}" name="mediálna výchova2" dataDxfId="31"/>
+    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0000-000066000000}" name="multikultúrna výchova2" dataDxfId="30"/>
+    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0000-000069000000}" name="regionálna výchova2" dataDxfId="29"/>
+    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0000-00006C000000}" name="sexuálna výchova2" dataDxfId="28"/>
+    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0000-00006F000000}" name="výchova k manželstvu a rodičovstvu2" dataDxfId="27"/>
+    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0000-000072000000}" name="emočná/citová výchova2" dataDxfId="26"/>
+    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0000-000075000000}" name="globálna výchova2" dataDxfId="25"/>
+    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0000-000078000000}" name="environmentálna výchova2" dataDxfId="24"/>
+    <tableColumn id="126" xr3:uid="{00000000-0010-0000-0000-00007E000000}" name="Predmety na rozvoj MV" dataDxfId="23"/>
+    <tableColumn id="129" xr3:uid="{00000000-0010-0000-0000-000081000000}" name="Učiteľ v rozvoji MV" dataDxfId="22"/>
+    <tableColumn id="132" xr3:uid="{00000000-0010-0000-0000-000084000000}" name="Metódy rozvoja  MV" dataDxfId="21"/>
+    <tableColumn id="141" xr3:uid="{00000000-0010-0000-0000-00008D000000}" name="Vzdelávanie v MV" dataDxfId="20"/>
+    <tableColumn id="144" xr3:uid="{00000000-0010-0000-0000-000090000000}" name="Met. materiály na rozvoj MV" dataDxfId="19"/>
+    <tableColumn id="147" xr3:uid="{00000000-0010-0000-0000-000093000000}" name="Podmienky na rozvoj MV" dataDxfId="18"/>
+    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0000-000096000000}" name="Potreby učiteľov v rozvoji MV" dataDxfId="17"/>
+    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0000-00009B000000}" name="Učiteľ/ka ako morálny vzor" dataDxfId="16"/>
+    <tableColumn id="158" xr3:uid="{00000000-0010-0000-0000-00009E000000}" name="Úloha učiteľa/ky v rozvoji MV" dataDxfId="15"/>
+    <tableColumn id="161" xr3:uid="{00000000-0010-0000-0000-0000A1000000}" name="Dostatok morálnych vzorov" dataDxfId="1"/>
+    <tableColumn id="164" xr3:uid="{00000000-0010-0000-0000-0000A4000000}" name="Úloha rodičov v rozvoji MV" dataDxfId="14"/>
+    <tableColumn id="167" xr3:uid="{00000000-0010-0000-0000-0000A7000000}" name="Morálne posolstvo v súčasných médiách" dataDxfId="13"/>
+    <tableColumn id="170" xr3:uid="{00000000-0010-0000-0000-0000AA000000}" name="Náchylnosť na nemorálnosť v súčastnosti" dataDxfId="12"/>
+    <tableColumn id="173" xr3:uid="{00000000-0010-0000-0000-0000AD000000}" name="Náboženské predpisy a morálka" dataDxfId="11"/>
+    <tableColumn id="176" xr3:uid="{00000000-0010-0000-0000-0000B0000000}" name="Nemorálne správanie detí" dataDxfId="10"/>
+    <tableColumn id="179" xr3:uid="{00000000-0010-0000-0000-0000B3000000}" name="Krádež jedla pre iných - ne/morálne konanie" dataDxfId="9"/>
+    <tableColumn id="182" xr3:uid="{00000000-0010-0000-0000-0000B6000000}" name="Dodržiavanie stanovených pravidiel" dataDxfId="8"/>
+    <tableColumn id="185" xr3:uid="{00000000-0010-0000-0000-0000B9000000}" name="Schopnosť detí rozlíšovať dobro a zlo" dataDxfId="7"/>
+    <tableColumn id="188" xr3:uid="{00000000-0010-0000-0000-0000BC000000}" name="Zlaté pravidlo dodržiavania morálky" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66690,126 +66690,108 @@
     <row r="373" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A373" s="11"/>
       <c r="B373" s="2"/>
-      <c r="C373"/>
       <c r="E373" s="9"/>
       <c r="H373" s="10"/>
     </row>
     <row r="374" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A374" s="12"/>
       <c r="B374" s="2"/>
-      <c r="C374"/>
       <c r="E374" s="9"/>
       <c r="H374" s="10"/>
     </row>
     <row r="375" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A375" s="11"/>
       <c r="B375" s="2"/>
-      <c r="C375"/>
       <c r="E375" s="9"/>
       <c r="H375" s="10"/>
     </row>
     <row r="376" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A376" s="12"/>
       <c r="B376" s="2"/>
-      <c r="C376"/>
       <c r="E376" s="9"/>
       <c r="H376" s="10"/>
     </row>
     <row r="377" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A377" s="11"/>
       <c r="B377" s="2"/>
-      <c r="C377"/>
       <c r="E377" s="9"/>
       <c r="H377" s="10"/>
     </row>
     <row r="378" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A378" s="12"/>
       <c r="B378" s="2"/>
-      <c r="C378"/>
       <c r="E378" s="9"/>
       <c r="H378" s="10"/>
     </row>
     <row r="379" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A379" s="11"/>
       <c r="B379" s="2"/>
-      <c r="C379"/>
       <c r="E379" s="9"/>
       <c r="H379" s="10"/>
     </row>
     <row r="380" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A380" s="12"/>
       <c r="B380" s="2"/>
-      <c r="C380"/>
       <c r="E380" s="9"/>
       <c r="H380" s="10"/>
     </row>
     <row r="381" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A381" s="11"/>
       <c r="B381" s="2"/>
-      <c r="C381"/>
       <c r="E381" s="9"/>
       <c r="H381" s="10"/>
     </row>
     <row r="382" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A382" s="12"/>
       <c r="B382" s="2"/>
-      <c r="C382"/>
       <c r="E382" s="9"/>
       <c r="H382" s="10"/>
     </row>
     <row r="383" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A383" s="11"/>
       <c r="B383" s="2"/>
-      <c r="C383"/>
       <c r="E383" s="9"/>
       <c r="H383" s="10"/>
     </row>
     <row r="384" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A384" s="12"/>
       <c r="B384" s="2"/>
-      <c r="C384"/>
       <c r="E384" s="9"/>
       <c r="H384" s="10"/>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="11"/>
       <c r="B385" s="2"/>
-      <c r="C385"/>
       <c r="E385" s="9"/>
       <c r="H385" s="10"/>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="12"/>
       <c r="B386" s="2"/>
-      <c r="C386"/>
       <c r="E386" s="9"/>
       <c r="H386" s="10"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="11"/>
       <c r="B387" s="2"/>
-      <c r="C387"/>
       <c r="E387" s="9"/>
       <c r="H387" s="10"/>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="12"/>
       <c r="B388" s="2"/>
-      <c r="C388"/>
       <c r="E388" s="9"/>
       <c r="H388" s="10"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="11"/>
       <c r="B389" s="2"/>
-      <c r="C389"/>
       <c r="E389" s="9"/>
       <c r="H389" s="10"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="12"/>
       <c r="B390" s="2"/>
-      <c r="C390"/>
       <c r="E390" s="9"/>
       <c r="H390" s="10"/>
     </row>
